--- a/APM files/135804805/nuovo bulk CIN 14_01_25.xlsx
+++ b/APM files/135804805/nuovo bulk CIN 14_01_25.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135804805/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549787B-E59D-254D-A0F2-FC1EAA70CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337A9F54-C450-C94F-9252-F7300E348627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1606">
   <si>
     <t>ID Avantio</t>
   </si>
@@ -4835,6 +4848,9 @@
   </si>
   <si>
     <t>IT027042C2U9QBWVVM</t>
+  </si>
+  <si>
+    <t>Regulatory Numbers</t>
   </si>
 </sst>
 </file>
@@ -4853,17 +4869,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5119,7 +5138,7 @@
   <dimension ref="A1:H378"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5129,6 +5148,7 @@
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5147,7 +5167,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>1605</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
@@ -5167,6 +5189,10 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="str">
+        <f>E2&amp;" | "&amp;D2</f>
+        <v>IT082053C274YU84EH | 19082053C239678</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -5184,6 +5210,10 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">E3&amp;" | "&amp;D3</f>
+        <v>IT082053C29XD929YU | 19082053C238663</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -5201,6 +5231,10 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2F3LRGVZC | 19082053C238709</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -5218,6 +5252,10 @@
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2QRE2MK66 | 19082053C239681</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -5235,6 +5273,10 @@
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2FZMZ43RG | 19082053C239677</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -5252,6 +5294,10 @@
       <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034792 | BR07401291000000781</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -5269,6 +5315,10 @@
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2FZMZ43RG | 19082053C239674</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -5286,6 +5336,10 @@
       <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2FD7H48RV | 19082053C241947</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -5303,6 +5357,10 @@
       <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2ZMG4FSDT | 19089017C242463</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -5320,6 +5378,10 @@
       <c r="E11" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C29H5XFNPD | 19089017C242481</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -5337,6 +5399,10 @@
       <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C22AXINKDE | 19089017C242414</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -5354,6 +5420,10 @@
       <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034829 | BR07401291000000816</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -5371,6 +5441,10 @@
       <c r="E14" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034823 | BR07401291000000810</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -5388,6 +5462,10 @@
       <c r="E15" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034824 | BR07401291000000811</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -5405,8 +5483,12 @@
       <c r="E16" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034825 | BR07401291000000812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5504,12 @@
       <c r="E17" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034826 | BR07401291000000813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -5439,8 +5525,12 @@
       <c r="E18" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034828 | BR07401291000000815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
@@ -5456,8 +5546,12 @@
       <c r="E19" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2ETL64G8B | 19089017C242981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>88</v>
       </c>
@@ -5473,8 +5567,12 @@
       <c r="E20" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034778 | BR07401291000000768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
@@ -5490,8 +5588,12 @@
       <c r="E21" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034779 | BR07401291000000769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>97</v>
       </c>
@@ -5507,8 +5609,12 @@
       <c r="E22" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034831 | BR07401291000000818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>102</v>
       </c>
@@ -5524,8 +5630,12 @@
       <c r="E23" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2A29DRE44 | 19082053C241946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>107</v>
       </c>
@@ -5541,8 +5651,12 @@
       <c r="E24" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2ALAKUMBS | 19089017C242422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>112</v>
       </c>
@@ -5558,8 +5672,12 @@
       <c r="E25" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2SWXO5Y3K | 19089017C242382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>116</v>
       </c>
@@ -5575,8 +5693,12 @@
       <c r="E26" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2KMP3YFN6 | 19089017C242400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>121</v>
       </c>
@@ -5592,8 +5714,12 @@
       <c r="E27" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2XCW9JYY5 | 19089017C242401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>125</v>
       </c>
@@ -5609,8 +5735,12 @@
       <c r="E28" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034801 | BR07401291000000788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>130</v>
       </c>
@@ -5626,8 +5756,12 @@
       <c r="E29" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2VZZOZNS9 | 19082053C241969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>135</v>
       </c>
@@ -5643,8 +5777,12 @@
       <c r="E30" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2XCMEAMKL | 19082053C242278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>140</v>
       </c>
@@ -5660,8 +5798,12 @@
       <c r="E31" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2JJBI2AWU | 19082053C246099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>144</v>
       </c>
@@ -5677,8 +5819,12 @@
       <c r="E32" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400048082 | BR07401291000012872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>149</v>
       </c>
@@ -5694,8 +5840,12 @@
       <c r="E33" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>IT087015C2TU38RMWY | 19087015C247136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>154</v>
       </c>
@@ -5711,8 +5861,12 @@
       <c r="E34" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034756 | BR07401291000000746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>159</v>
       </c>
@@ -5728,8 +5882,12 @@
       <c r="E35" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2F7XRU4TY | 19089017C242424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>164</v>
       </c>
@@ -5745,8 +5903,12 @@
       <c r="E36" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2GTIDDNBL | 19089017C242420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>167</v>
       </c>
@@ -5762,8 +5924,12 @@
       <c r="E37" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2PSPS934D | 19089017C247684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>171</v>
       </c>
@@ -5779,8 +5945,12 @@
       <c r="E38" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2BL6HOBPZ | 19089017C247685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>174</v>
       </c>
@@ -5796,8 +5966,12 @@
       <c r="E39" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2XT3XXZDK | 19089017C247571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>177</v>
       </c>
@@ -5813,8 +5987,12 @@
       <c r="E40" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2OI8D4TGX | 19089017C247687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>180</v>
       </c>
@@ -5830,8 +6008,12 @@
       <c r="E41" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2PTS2NJ3N | 19089017C247575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>184</v>
       </c>
@@ -5847,8 +6029,12 @@
       <c r="E42" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2GG65JUFI | 19089017C247689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>187</v>
       </c>
@@ -5864,8 +6050,12 @@
       <c r="E43" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2JI27NXSV | 19089017C247690</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>190</v>
       </c>
@@ -5881,8 +6071,12 @@
       <c r="E44" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2CP7KI69A | 19089017C247819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>193</v>
       </c>
@@ -5898,8 +6092,12 @@
       <c r="E45" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2EDJGV8TD | 19089017C247820</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>197</v>
       </c>
@@ -5915,8 +6113,12 @@
       <c r="E46" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>IT089017C2WD6FY3SB | 19089017C247572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>200</v>
       </c>
@@ -5932,8 +6134,12 @@
       <c r="E47" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2TIWCCTIK | 19082053C246139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>205</v>
       </c>
@@ -5949,8 +6155,12 @@
       <c r="E48" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C2CSONQCTT | 19082053C242237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>210</v>
       </c>
@@ -5966,8 +6176,12 @@
       <c r="E49" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C273FTKHKN | 19082053C246110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>215</v>
       </c>
@@ -5983,8 +6197,12 @@
       <c r="E50" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C1S7ELDVWG | 19082053C128749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>220</v>
       </c>
@@ -6000,8 +6218,12 @@
       <c r="E51" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C1S7ELDVWG | 19082053C128748</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>223</v>
       </c>
@@ -6017,8 +6239,12 @@
       <c r="E52" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C1S7ELDVWG | 19082053C128747</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>226</v>
       </c>
@@ -6034,8 +6260,12 @@
       <c r="E53" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C1S7ELDVWG | 19082053C128750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>229</v>
       </c>
@@ -6051,8 +6281,12 @@
       <c r="E54" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082053C1S7ELDVWG | 19082053C128746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>232</v>
       </c>
@@ -6068,8 +6302,12 @@
       <c r="E55" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400104642 | BR07401291000061277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>236</v>
       </c>
@@ -6085,8 +6323,12 @@
       <c r="E56" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>IT082071C2ZTSPY7ND | 19082071C248041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>241</v>
       </c>
@@ -6102,8 +6344,12 @@
       <c r="E57" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>IT081005B4VY6GMR5X | 19081005B428748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>246</v>
       </c>
@@ -6119,8 +6365,12 @@
       <c r="E58" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>IT063049C2AQ4VFLR5 | 15063049LOB3043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>251</v>
       </c>
@@ -6134,8 +6384,12 @@
       <c r="E59" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">IT063049C29JEI8Z7A | </v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>255</v>
       </c>
@@ -6151,8 +6405,12 @@
       <c r="E60" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034827 | BR07401291000000814</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>259</v>
       </c>
@@ -6166,8 +6424,12 @@
       <c r="E61" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">IT074005B400040139 | </v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>263</v>
       </c>
@@ -6181,8 +6443,12 @@
       <c r="E62" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">IT074005B400040139 | </v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>265</v>
       </c>
@@ -6196,8 +6462,12 @@
       <c r="E63" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">IT074005B400040139 | </v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>267</v>
       </c>
@@ -6211,8 +6481,12 @@
       <c r="E64" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">IT074005B400040139 | </v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>269</v>
       </c>
@@ -6228,8 +6502,12 @@
       <c r="E65" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>IT074012B400034831 | BR07401291000000818</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>271</v>
       </c>
@@ -6245,8 +6523,12 @@
       <c r="E66" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>IT087015C2W2YWNY3C | 19087015C247211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>276</v>
       </c>
@@ -6262,8 +6544,12 @@
       <c r="E67" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="1">E67&amp;" | "&amp;D67</f>
+        <v>IT083048C2HCFIYR3X | 19083048C247188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>281</v>
       </c>
@@ -6277,8 +6563,12 @@
       <c r="E68" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">IT074012B400090642 | </v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>285</v>
       </c>
@@ -6292,8 +6582,12 @@
       <c r="E69" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">IT074012B400090642 | </v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>287</v>
       </c>
@@ -6309,8 +6603,12 @@
       <c r="E70" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>IT074012B400055792 | BR07401291000018868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>291</v>
       </c>
@@ -6326,8 +6624,12 @@
       <c r="E71" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>IT074012B400055794 | BR07401291000018870</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>295</v>
       </c>
@@ -6343,8 +6645,12 @@
       <c r="E72" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>IT074012B400055795 | BR07401291000018871</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>298</v>
       </c>
@@ -6360,8 +6666,12 @@
       <c r="E73" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>IT074012B400055796 | BR07401291000018872</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>301</v>
       </c>
@@ -6377,8 +6687,12 @@
       <c r="E74" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>IT074012B400055797 | BR07401291000018873</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>304</v>
       </c>
@@ -6394,8 +6708,12 @@
       <c r="E75" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>IT074012B400055798 | BR07401291000018874</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>307</v>
       </c>
@@ -6411,8 +6729,12 @@
       <c r="E76" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>IT074012B400055800 | BR07401291000018876</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>310</v>
       </c>
@@ -6428,8 +6750,12 @@
       <c r="E77" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>IT082021C2CPBP293J | 19082021C244250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>315</v>
       </c>
@@ -6445,8 +6771,12 @@
       <c r="E78" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087015C2NROD2SQF | 19087015C247746</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>320</v>
       </c>
@@ -6462,8 +6792,12 @@
       <c r="E79" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087015C2875OSUBZ | 19087015C247780</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>325</v>
       </c>
@@ -6479,8 +6813,12 @@
       <c r="E80" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>330</v>
       </c>
@@ -6496,8 +6834,12 @@
       <c r="E81" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>331</v>
       </c>
@@ -6513,8 +6855,12 @@
       <c r="E82" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>332</v>
       </c>
@@ -6530,8 +6876,12 @@
       <c r="E83" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>334</v>
       </c>
@@ -6547,8 +6897,12 @@
       <c r="E84" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>335</v>
       </c>
@@ -6564,8 +6918,12 @@
       <c r="E85" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>337</v>
       </c>
@@ -6581,8 +6939,12 @@
       <c r="E86" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>338</v>
       </c>
@@ -6598,8 +6960,12 @@
       <c r="E87" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>340</v>
       </c>
@@ -6615,8 +6981,12 @@
       <c r="E88" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>341</v>
       </c>
@@ -6632,8 +7002,12 @@
       <c r="E89" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>342</v>
       </c>
@@ -6649,8 +7023,12 @@
       <c r="E90" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>344</v>
       </c>
@@ -6666,8 +7044,12 @@
       <c r="E91" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>345</v>
       </c>
@@ -6683,8 +7065,12 @@
       <c r="E92" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>346</v>
       </c>
@@ -6700,8 +7086,12 @@
       <c r="E93" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>347</v>
       </c>
@@ -6717,8 +7107,12 @@
       <c r="E94" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>348</v>
       </c>
@@ -6734,8 +7128,12 @@
       <c r="E95" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>349</v>
       </c>
@@ -6751,8 +7149,12 @@
       <c r="E96" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>350</v>
       </c>
@@ -6768,8 +7170,12 @@
       <c r="E97" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>351</v>
       </c>
@@ -6785,8 +7191,12 @@
       <c r="E98" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>352</v>
       </c>
@@ -6802,8 +7212,12 @@
       <c r="E99" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>354</v>
       </c>
@@ -6819,8 +7233,12 @@
       <c r="E100" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F100" t="str">
+        <f t="shared" si="1"/>
+        <v>IT037006C2FDPNPT9V | 037006-AT-03883</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>359</v>
       </c>
@@ -6836,8 +7254,12 @@
       <c r="E101" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F101" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>361</v>
       </c>
@@ -6853,8 +7275,12 @@
       <c r="E102" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F102" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>363</v>
       </c>
@@ -6870,8 +7296,12 @@
       <c r="E103" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>365</v>
       </c>
@@ -6887,8 +7317,12 @@
       <c r="E104" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F104" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>366</v>
       </c>
@@ -6904,8 +7338,12 @@
       <c r="E105" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F105" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>368</v>
       </c>
@@ -6921,8 +7359,12 @@
       <c r="E106" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017067A1T9VXIBRM | 017067-RTA-00006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>369</v>
       </c>
@@ -6938,8 +7380,12 @@
       <c r="E107" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F107" t="str">
+        <f t="shared" si="1"/>
+        <v>IT089017C268YLQZPB | 19089017C242394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <v>374</v>
       </c>
@@ -6955,8 +7401,12 @@
       <c r="E108" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F108" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017102C25HGHBMSH | 017102-CNI-00159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
         <v>379</v>
       </c>
@@ -6972,8 +7422,12 @@
       <c r="E109" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F109" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017187B4U9NBPCZ5 | 017187-CIM-00349</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>384</v>
       </c>
@@ -6989,8 +7443,12 @@
       <c r="E110" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F110" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017102C292UVZRG9 | 017102-CNI-00255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>389</v>
       </c>
@@ -7006,8 +7464,12 @@
       <c r="E111" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F111" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017102B44EW7XFOU | 017102-LIM-00006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
         <v>394</v>
       </c>
@@ -7023,8 +7485,12 @@
       <c r="E112" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F112" t="str">
+        <f t="shared" si="1"/>
+        <v>IT017109C274PZF7U5 | 017109-CNI-00082</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>399</v>
       </c>
@@ -7040,8 +7506,12 @@
       <c r="E113" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F113" t="str">
+        <f t="shared" si="1"/>
+        <v>IT089017C2CFCFT9TJ | 19089017C242387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
         <v>404</v>
       </c>
@@ -7057,8 +7527,12 @@
       <c r="E114" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F114" t="str">
+        <f t="shared" si="1"/>
+        <v>IT037006B4JPMR7IZO | 037006-CV-00436</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
         <v>409</v>
       </c>
@@ -7074,8 +7548,12 @@
       <c r="E115" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F115" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087015C2HSL8EVJE | 19087015C248024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>414</v>
       </c>
@@ -7091,8 +7569,12 @@
       <c r="E116" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F116" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087017C2UDJ2BBC8 | 19087017C247797</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
         <v>419</v>
       </c>
@@ -7108,8 +7590,12 @@
       <c r="E117" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F117" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087002C28D279KEA | 19087002C247447</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
         <v>424</v>
       </c>
@@ -7125,8 +7611,12 @@
       <c r="E118" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F118" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087002C2J74Q76L4 | 19087015C248026</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>429</v>
       </c>
@@ -7142,8 +7632,12 @@
       <c r="E119" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F119" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087015C2UPI7U9EZ | 19087002C248025</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
         <v>433</v>
       </c>
@@ -7159,8 +7653,12 @@
       <c r="E120" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F120" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087002C2HTPJ7S5K | 19087002C247833</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
         <v>438</v>
       </c>
@@ -7176,8 +7674,12 @@
       <c r="E121" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F121" t="str">
+        <f t="shared" si="1"/>
+        <v>IT082053C2MBP92OLP | 19082053C246111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
         <v>443</v>
       </c>
@@ -7193,8 +7695,12 @@
       <c r="E122" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F122" t="str">
+        <f t="shared" si="1"/>
+        <v>IT082053C2A7Y24HSO | 19082053C246135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
         <v>448</v>
       </c>
@@ -7210,8 +7716,12 @@
       <c r="E123" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F123" t="str">
+        <f t="shared" si="1"/>
+        <v>IT082053C2QVUWEJMJ | 19082053C246076</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
         <v>452</v>
       </c>
@@ -7227,8 +7737,12 @@
       <c r="E124" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F124" t="str">
+        <f t="shared" si="1"/>
+        <v>IT082053C2KAEE43IO | 19082053C246136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
         <v>456</v>
       </c>
@@ -7244,8 +7758,12 @@
       <c r="E125" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F125" t="str">
+        <f t="shared" si="1"/>
+        <v>IT082053C248SKV8Z5 | 19082053C246141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
         <v>459</v>
       </c>
@@ -7261,8 +7779,12 @@
       <c r="E126" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F126" t="str">
+        <f t="shared" si="1"/>
+        <v>IT082053C2YX6IZLJF | 19082053C246222</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
         <v>463</v>
       </c>
@@ -7278,8 +7800,12 @@
       <c r="E127" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F127" t="str">
+        <f t="shared" si="1"/>
+        <v>IT082053C2KYQ938MY | 19082053C246137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
         <v>466</v>
       </c>
@@ -7295,8 +7821,12 @@
       <c r="E128" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F128" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087039C2QLL3RQ3Y | 19087039C247664</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
         <v>471</v>
       </c>
@@ -7312,8 +7842,12 @@
       <c r="E129" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F129" t="str">
+        <f t="shared" si="1"/>
+        <v>IT089013C2F2TXBA4H | 19089013C246113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
         <v>476</v>
       </c>
@@ -7329,8 +7863,12 @@
       <c r="E130" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F130" t="str">
+        <f t="shared" si="1"/>
+        <v>IT087015C2UFH8652Z | 19087015C247800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
         <v>481</v>
       </c>
@@ -7346,8 +7884,12 @@
       <c r="E131" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F194" si="2">E131&amp;" | "&amp;D131</f>
+        <v>IT087015C2AJRFVUO6 | 19087015C247665</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
         <v>486</v>
       </c>
@@ -7363,8 +7905,12 @@
       <c r="E132" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F132" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2EURTBCMA | 19087015C247549</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
         <v>491</v>
       </c>
@@ -7380,8 +7926,12 @@
       <c r="E133" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F133" t="str">
+        <f t="shared" si="2"/>
+        <v>IT083032C2YCBUX282 | 19083032C247595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>496</v>
       </c>
@@ -7397,8 +7947,12 @@
       <c r="E134" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F134" t="str">
+        <f t="shared" si="2"/>
+        <v>IT037006C2XJ5Y453A | 037006-AT-03944</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
         <v>501</v>
       </c>
@@ -7414,8 +7968,12 @@
       <c r="E135" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F135" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2YL7TAL79 | 19087015C247548</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
         <v>506</v>
       </c>
@@ -7431,8 +7989,12 @@
       <c r="E136" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F136" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C28GHWCTKK | 19087015C247543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>510</v>
       </c>
@@ -7448,8 +8010,12 @@
       <c r="E137" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F137" t="str">
+        <f t="shared" si="2"/>
+        <v>IT037006B4JPMR7IZO | 037006-CV-00436</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
         <v>513</v>
       </c>
@@ -7465,8 +8031,12 @@
       <c r="E138" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F138" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2DI3RVIC8 | 19087015C247666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
         <v>518</v>
       </c>
@@ -7482,8 +8052,12 @@
       <c r="E139" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F139" t="str">
+        <f t="shared" si="2"/>
+        <v>IT089017C2ND7F4PD8 | 19089017C242428</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
         <v>523</v>
       </c>
@@ -7499,8 +8073,12 @@
       <c r="E140" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F140" t="str">
+        <f t="shared" si="2"/>
+        <v>IT082053C29QAHUQSI | 19082053C246114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
         <v>528</v>
       </c>
@@ -7516,8 +8094,12 @@
       <c r="E141" s="3" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F141" t="str">
+        <f t="shared" si="2"/>
+        <v>IT063049C27737VB48 | 15063049LOB4249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
         <v>533</v>
       </c>
@@ -7533,8 +8115,12 @@
       <c r="E142" s="3" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F142" t="str">
+        <f t="shared" si="2"/>
+        <v>IT001272C2AJXDFS7Y | 00127202500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
         <v>538</v>
       </c>
@@ -7550,8 +8136,12 @@
       <c r="E143" s="3" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F143" t="str">
+        <f t="shared" si="2"/>
+        <v>IT001272C2V9DG69VM | 00127205703</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
         <v>543</v>
       </c>
@@ -7567,8 +8157,12 @@
       <c r="E144" s="3" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F144" t="str">
+        <f t="shared" si="2"/>
+        <v>IT010025B4KZ4H5ZYH | 010025-LT-3067</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
         <v>548</v>
       </c>
@@ -7584,8 +8178,12 @@
       <c r="E145" s="3" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F145" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2OO4L3QMY | 19087015C246112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
         <v>553</v>
       </c>
@@ -7601,8 +8199,12 @@
       <c r="E146" s="3" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F146" t="str">
+        <f t="shared" si="2"/>
+        <v>IT082053C2X4DPO7MK | 19082053C245491</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
         <v>558</v>
       </c>
@@ -7618,8 +8220,12 @@
       <c r="E147" s="3" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F147" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2R268Y7DR | 19087015C245961</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
         <v>563</v>
       </c>
@@ -7635,8 +8241,12 @@
       <c r="E148" s="3" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F148" t="str">
+        <f t="shared" si="2"/>
+        <v>IT082053C2N3GAORPL | 19082053C245490</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
         <v>568</v>
       </c>
@@ -7652,8 +8262,12 @@
       <c r="E149" s="3" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F149" t="str">
+        <f t="shared" si="2"/>
+        <v>IT090047C2000P6701 | P6701</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
         <v>573</v>
       </c>
@@ -7669,8 +8283,12 @@
       <c r="E150" s="3" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F150" t="str">
+        <f t="shared" si="2"/>
+        <v>IT082027C2U26YOJ5C | 19082027C248172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
         <v>578</v>
       </c>
@@ -7686,8 +8304,12 @@
       <c r="E151" s="3" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F151" t="str">
+        <f t="shared" si="2"/>
+        <v>IT013250C24MWXJXWJ | 013250-LNI-00023</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
         <v>583</v>
       </c>
@@ -7703,8 +8325,12 @@
       <c r="E152" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F152" t="str">
+        <f t="shared" si="2"/>
+        <v>IT090047C2000R2205 | R2205</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>588</v>
       </c>
@@ -7720,8 +8346,12 @@
       <c r="E153" s="3" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F153" t="str">
+        <f t="shared" si="2"/>
+        <v>IT090047C2000R2193 | R2193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
         <v>593</v>
       </c>
@@ -7737,8 +8367,12 @@
       <c r="E154" s="3" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F154" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2TTEJ9F9G | 19087015C246060</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
         <v>597</v>
       </c>
@@ -7754,8 +8388,12 @@
       <c r="E155" s="3" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F155" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087002C2AMFKZWFP | 19087002C247681</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
         <v>602</v>
       </c>
@@ -7771,8 +8409,12 @@
       <c r="E156" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F156" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2M398QZ8G | 19087015C245760</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
         <v>607</v>
       </c>
@@ -7788,8 +8430,12 @@
       <c r="E157" s="3" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F157" t="str">
+        <f t="shared" si="2"/>
+        <v>IT083097C25XTXCDJN | 19083097C247823</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
         <v>612</v>
       </c>
@@ -7805,8 +8451,12 @@
       <c r="E158" s="3" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F158" t="str">
+        <f t="shared" si="2"/>
+        <v>IT083097C2NZIKN4TO | 19083097C247824</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
         <v>616</v>
       </c>
@@ -7822,8 +8472,12 @@
       <c r="E159" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F159" t="str">
+        <f t="shared" si="2"/>
+        <v>IT082053C2OIF74BK3 | 19082053C246254</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
         <v>621</v>
       </c>
@@ -7839,8 +8493,12 @@
       <c r="E160" s="3" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F160" t="str">
+        <f t="shared" si="2"/>
+        <v>IT081020C2C353NP7O | 19081020C243794</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
         <v>626</v>
       </c>
@@ -7856,8 +8514,12 @@
       <c r="E161" s="3" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F161" t="str">
+        <f t="shared" si="2"/>
+        <v>IT081020C2A7Z6O78Y | 19081020C243892</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
         <v>630</v>
       </c>
@@ -7873,8 +8535,12 @@
       <c r="E162" s="3" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F162" t="str">
+        <f t="shared" si="2"/>
+        <v>IT083032C2A56HTH38 | 19083032C247827</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
         <v>635</v>
       </c>
@@ -7890,8 +8556,12 @@
       <c r="E163" s="3" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F163" t="str">
+        <f t="shared" si="2"/>
+        <v>IT083032C2ROEDTJ9E | 19083032C247825</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
         <v>639</v>
       </c>
@@ -7907,8 +8577,12 @@
       <c r="E164" s="3" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F164" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087002C27RLQ2MD8 | 19087002C247829</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
         <v>644</v>
       </c>
@@ -7924,8 +8598,12 @@
       <c r="E165" s="3" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F165" t="str">
+        <f t="shared" si="2"/>
+        <v>IT083097C275Q3YYWS | 19083097C247807</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
         <v>649</v>
       </c>
@@ -7941,8 +8619,12 @@
       <c r="E166" s="3" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F166" t="str">
+        <f t="shared" si="2"/>
+        <v>IT083097C2L2K5X7EO | 19083097C247826</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
         <v>653</v>
       </c>
@@ -7958,8 +8640,12 @@
       <c r="E167" s="3" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F167" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087004C2ZRCXZUVU | 19087004C247809</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
         <v>658</v>
       </c>
@@ -7975,8 +8661,12 @@
       <c r="E168" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F168" t="str">
+        <f t="shared" si="2"/>
+        <v>IT089017C2UO5AL59K | 19089017C245960</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
         <v>663</v>
       </c>
@@ -7992,8 +8682,12 @@
       <c r="E169" s="3" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F169" t="str">
+        <f t="shared" si="2"/>
+        <v>IT089017C2EK2YH2RG | 19089017C245963</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
         <v>668</v>
       </c>
@@ -8009,8 +8703,12 @@
       <c r="E170" s="3" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F170" t="str">
+        <f t="shared" si="2"/>
+        <v>IT089017C2CF5DRB4Q | 19089017C246065</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>672</v>
       </c>
@@ -8026,8 +8724,12 @@
       <c r="E171" s="3" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F171" t="str">
+        <f t="shared" si="2"/>
+        <v>IT089017C2O6XMA8YZ | 19089017C246062</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
         <v>677</v>
       </c>
@@ -8043,8 +8745,12 @@
       <c r="E172" s="3" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F172" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C299U8WXT2 | 19087015C245761</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
         <v>682</v>
       </c>
@@ -8060,8 +8766,12 @@
       <c r="E173" s="3" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F173" t="str">
+        <f t="shared" si="2"/>
+        <v>IT082053C26Q74Q32J | 19082053C246189</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
         <v>687</v>
       </c>
@@ -8077,8 +8787,12 @@
       <c r="E174" s="3" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F174" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2EG6WYR5O | 19087015C245402</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
         <v>692</v>
       </c>
@@ -8092,8 +8806,12 @@
       <c r="E175" s="3" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F175" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">IT063049B4434YHHFM | </v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
         <v>696</v>
       </c>
@@ -8109,8 +8827,12 @@
       <c r="E176" s="3" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F176" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2OXZNDE83 | 19087015C247885</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
         <v>701</v>
       </c>
@@ -8126,8 +8848,12 @@
       <c r="E177" s="3" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F177" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C23I67FKEO | 19087015C246061</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
         <v>706</v>
       </c>
@@ -8143,8 +8869,12 @@
       <c r="E178" s="3" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F178" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2AL8UNGAQ | 19087015C246848</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
         <v>710</v>
       </c>
@@ -8160,8 +8890,12 @@
       <c r="E179" s="3" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F179" t="str">
+        <f t="shared" si="2"/>
+        <v>IT087015C2VCAONXXE | 19087015C245403</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
         <v>714</v>
       </c>
@@ -8177,8 +8911,12 @@
       <c r="E180" s="3" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F180" t="str">
+        <f t="shared" si="2"/>
+        <v>IT089017C25ODTGKT7 | 19089017C246064</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
         <v>719</v>
       </c>
@@ -8194,8 +8932,12 @@
       <c r="E181" s="3" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F181" t="str">
+        <f t="shared" si="2"/>
+        <v>IT082053C2HSECY4PR | 19082053C245462</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
         <v>724</v>
       </c>
@@ -8211,8 +8953,12 @@
       <c r="E182" s="3" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F182" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4WWUBRWBO | 027042-LOC-15646</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
         <v>729</v>
       </c>
@@ -8228,8 +8974,12 @@
       <c r="E183" s="3" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F183" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B42Q6IYHHN | 027042-LOC-15645</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="3" t="s">
         <v>733</v>
       </c>
@@ -8245,8 +8995,12 @@
       <c r="E184" s="3" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F184" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4I2V9K6EF | 027042-LOC-15644</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
         <v>737</v>
       </c>
@@ -8262,8 +9016,12 @@
       <c r="E185" s="3" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F185" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4NFNM3GAE | 027042-LOC-15643</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
         <v>741</v>
       </c>
@@ -8279,8 +9037,12 @@
       <c r="E186" s="3" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F186" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4RID8TO2Z | 027042-LOC-15828</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
         <v>745</v>
       </c>
@@ -8296,8 +9058,12 @@
       <c r="E187" s="3" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F187" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4TCQ3S6O7 | 027042-LOC-15753</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
         <v>750</v>
       </c>
@@ -8313,8 +9079,12 @@
       <c r="E188" s="3" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F188" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4TCQ3S6O7 | 027042-LOC-15753</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
         <v>752</v>
       </c>
@@ -8330,8 +9100,12 @@
       <c r="E189" s="3" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F189" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4TCQ3S6O7 | 027042-LOC-15753</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
         <v>754</v>
       </c>
@@ -8347,8 +9121,12 @@
       <c r="E190" s="3" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F190" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4TCQ3S6O7 | 027042-LOC-15753</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
         <v>756</v>
       </c>
@@ -8364,8 +9142,12 @@
       <c r="E191" s="3" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F191" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4TCQ3S6O7 | 027042-LOC-15753</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
         <v>758</v>
       </c>
@@ -8381,8 +9163,12 @@
       <c r="E192" s="3" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F192" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4TCQ3S6O7 | 027042-LOC-15753</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
         <v>760</v>
       </c>
@@ -8398,8 +9184,12 @@
       <c r="E193" s="3" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F193" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4SNND82OY | 027042-UAM-00232</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
         <v>765</v>
       </c>
@@ -8415,8 +9205,12 @@
       <c r="E194" s="3" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F194" t="str">
+        <f t="shared" si="2"/>
+        <v>IT027042B4SNND82OY | 027042-UAM-00232</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
         <v>767</v>
       </c>
@@ -8432,8 +9226,12 @@
       <c r="E195" s="3" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F195" t="str">
+        <f t="shared" ref="F195:F258" si="3">E195&amp;" | "&amp;D195</f>
+        <v>IT027042B4SNND82OY | 027042-UAM-00232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
         <v>769</v>
       </c>
@@ -8449,8 +9247,12 @@
       <c r="E196" s="3" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F196" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4D4G6QWWF | 027042-loc-04756</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
         <v>773</v>
       </c>
@@ -8466,8 +9268,12 @@
       <c r="E197" s="3" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F197" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B48DQZ9U7L | 027042-LOC-15498</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
         <v>778</v>
       </c>
@@ -8483,8 +9289,12 @@
       <c r="E198" s="3" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F198" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4YCXBRDQ8 | 027042-LOC-15495</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
         <v>782</v>
       </c>
@@ -8500,8 +9310,12 @@
       <c r="E199" s="3" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F199" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4I3HZT8MF | 027042-LOC-15497</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
         <v>786</v>
       </c>
@@ -8517,8 +9331,12 @@
       <c r="E200" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F200" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4SE9JW2HD | 027042-LOC-15496</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="3" t="s">
         <v>790</v>
       </c>
@@ -8534,8 +9352,12 @@
       <c r="E201" s="3" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F201" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4KZZ434SA | 027042-LOC-15641</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
         <v>795</v>
       </c>
@@ -8551,8 +9373,12 @@
       <c r="E202" s="3" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F202" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4L7838RWK | 027042-LOC-15640</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
         <v>799</v>
       </c>
@@ -8568,8 +9394,12 @@
       <c r="E203" s="3" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F203" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4GJF5JVDI | 027042-LOC-06220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
         <v>804</v>
       </c>
@@ -8585,8 +9415,12 @@
       <c r="E204" s="3" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F204" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4Y3KWEBPL | 027042-LOC-11466</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
         <v>808</v>
       </c>
@@ -8602,8 +9436,12 @@
       <c r="E205" s="3" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F205" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B45R8QCW8P | 027042-LOC-10731</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
         <v>813</v>
       </c>
@@ -8619,8 +9457,12 @@
       <c r="E206" s="3" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F206" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4O653GM7O | 027042-LOC-15826</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
         <v>818</v>
       </c>
@@ -8636,8 +9478,12 @@
       <c r="E207" s="3" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F207" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4Y64G5N9C | 027042-LOC-15827</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
         <v>822</v>
       </c>
@@ -8653,8 +9499,12 @@
       <c r="E208" s="3" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F208" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4H7TZJQ3A | 027042-LOC-08840</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
         <v>827</v>
       </c>
@@ -8670,8 +9520,12 @@
       <c r="E209" s="3" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F209" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B43L8DULB2 | 027042-LOC-06219</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
         <v>832</v>
       </c>
@@ -8687,8 +9541,12 @@
       <c r="E210" s="3" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F210" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4YM9EO7G3 | 027042-LOC-06432</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
         <v>836</v>
       </c>
@@ -8704,8 +9562,12 @@
       <c r="E211" s="3" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F211" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B48IKVKPNU | 027042-LOC-06433</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
         <v>840</v>
       </c>
@@ -8721,8 +9583,12 @@
       <c r="E212" s="3" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F212" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4CBJX92AS | 027042-LOC-15765</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
         <v>845</v>
       </c>
@@ -8738,8 +9604,12 @@
       <c r="E213" s="3" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F213" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4X4TODP7F | 027042-LOC-15758</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
         <v>849</v>
       </c>
@@ -8755,8 +9625,12 @@
       <c r="E214" s="3" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F214" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4HKA3CU54 | 027042-LOC-15757</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
         <v>854</v>
       </c>
@@ -8772,8 +9646,12 @@
       <c r="E215" s="3" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F215" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4ALOS6M2N | 027042-LOC-15756</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
         <v>858</v>
       </c>
@@ -8789,8 +9667,12 @@
       <c r="E216" s="3" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F216" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4IBP96ARV | 027042-LOC-15755</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
         <v>862</v>
       </c>
@@ -8806,8 +9688,12 @@
       <c r="E217" s="3" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F217" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4QM39CU7T | 027042-LOC-15754</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
         <v>866</v>
       </c>
@@ -8823,8 +9709,12 @@
       <c r="E218" s="3" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F218" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4GFOT2NLR | 027042-LOC-15764</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
         <v>870</v>
       </c>
@@ -8840,8 +9730,12 @@
       <c r="E219" s="3" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F219" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4KYWLUGRC | 027042-LOC-15763</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
         <v>874</v>
       </c>
@@ -8857,8 +9751,12 @@
       <c r="E220" s="3" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F220" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4GHIJGCKG | 027042-LOC-15762</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
         <v>878</v>
       </c>
@@ -8874,8 +9772,12 @@
       <c r="E221" s="3" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F221" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B43O7BOQND | 027042-LOC-15479</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
         <v>882</v>
       </c>
@@ -8891,8 +9793,12 @@
       <c r="E222" s="3" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F222" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B483WB8V97 | 027042-LOC-15761</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
         <v>886</v>
       </c>
@@ -8908,8 +9814,12 @@
       <c r="E223" s="3" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F223" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B4Z65H35U4 | 027042-LOC-15760</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
         <v>890</v>
       </c>
@@ -8925,8 +9835,12 @@
       <c r="E224" s="3" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F224" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B42C6F7HGW | 027042-LOC-15759</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
         <v>894</v>
       </c>
@@ -8942,8 +9856,12 @@
       <c r="E225" s="3" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F225" t="str">
+        <f t="shared" si="3"/>
+        <v>IT027042B439YTHVFE | 027042-LOC-15786</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
         <v>899</v>
       </c>
@@ -8959,8 +9877,12 @@
       <c r="E226" s="3" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F226" t="str">
+        <f t="shared" si="3"/>
+        <v>IT074012C200055340 | BR07401291000018477</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
         <v>904</v>
       </c>
@@ -8976,8 +9898,12 @@
       <c r="E227" s="3" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F227" t="str">
+        <f t="shared" si="3"/>
+        <v>IT083032C2H3HX4ZYQ | 19083032C226909</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
         <v>909</v>
       </c>
@@ -8993,8 +9919,12 @@
       <c r="E228" s="3" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F228" t="str">
+        <f t="shared" si="3"/>
+        <v>IT063049C2SNB8TX4A | 15063049LOB8462</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
         <v>914</v>
       </c>
@@ -9010,8 +9940,12 @@
       <c r="E229" s="3" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F229" t="str">
+        <f t="shared" si="3"/>
+        <v>IT081005C2PUQMNMQ8 | 19081005C247721</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
         <v>919</v>
       </c>
@@ -9027,8 +9961,12 @@
       <c r="E230" s="3" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F230" t="str">
+        <f t="shared" si="3"/>
+        <v>IT089017C2F42OPRHB | 19089017C246063</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="3" t="s">
         <v>924</v>
       </c>
@@ -9044,8 +9982,12 @@
       <c r="E231" s="3" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F231" t="str">
+        <f t="shared" si="3"/>
+        <v>IT087015C2XQ9WEAPN | 19087015C246066</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="3" t="s">
         <v>929</v>
       </c>
@@ -9061,8 +10003,12 @@
       <c r="E232" s="3" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F232" t="str">
+        <f t="shared" si="3"/>
+        <v>IT082053C2RHPMFWL4 | 19082053C242309</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
         <v>934</v>
       </c>
@@ -9078,8 +10024,12 @@
       <c r="E233" s="3" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F233" t="str">
+        <f t="shared" si="3"/>
+        <v>IT089017C2MMLGWFFT | 19089017C247810</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
         <v>939</v>
       </c>
@@ -9095,8 +10045,12 @@
       <c r="E234" s="3" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F234" t="str">
+        <f t="shared" si="3"/>
+        <v>IT074012B400088462 | BR07401291000044381</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
         <v>944</v>
       </c>
@@ -9112,8 +10066,12 @@
       <c r="E235" s="3" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F235" t="str">
+        <f t="shared" si="3"/>
+        <v>IT089017C2UHSEGG5Z | 19089017C246117</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
         <v>949</v>
       </c>
@@ -9127,8 +10085,12 @@
       <c r="E236" s="3" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F236" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">IT063049B4MU9UHDU2 | </v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
         <v>953</v>
       </c>
@@ -9144,8 +10106,12 @@
       <c r="E237" s="3" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F237" t="str">
+        <f t="shared" si="3"/>
+        <v>IT083097C2WL3RN5AS | 19083097C247811</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="3" t="s">
         <v>958</v>
       </c>
@@ -9161,8 +10127,12 @@
       <c r="E238" s="3" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F238" t="str">
+        <f t="shared" si="3"/>
+        <v>IT090084C2000R6621 | R6621</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
         <v>963</v>
       </c>
@@ -9178,8 +10148,12 @@
       <c r="E239" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F239" t="str">
+        <f t="shared" si="3"/>
+        <v>IT090084C2000R6330 | R6330</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="3" t="s">
         <v>967</v>
       </c>
@@ -9195,8 +10169,12 @@
       <c r="E240" s="3" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F240" t="str">
+        <f t="shared" si="3"/>
+        <v>IT013250C2HOVH9FVV | 013250-LNI-00073</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
         <v>972</v>
       </c>
@@ -9212,8 +10190,12 @@
       <c r="E241" s="3" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F241" t="str">
+        <f t="shared" si="3"/>
+        <v>IT013250C2SHXFJDQE | 013250-LNI-00074</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
         <v>976</v>
       </c>
@@ -9229,8 +10211,12 @@
       <c r="E242" s="3" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F242" t="str">
+        <f t="shared" si="3"/>
+        <v>IT017102B4XJE6LZ4B | 017102-CIM-00284</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
         <v>980</v>
       </c>
@@ -9246,8 +10232,12 @@
       <c r="E243" s="3" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F243" t="str">
+        <f t="shared" si="3"/>
+        <v>IT089017C2RSL9HIAC | 19089017C245504</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
         <v>985</v>
       </c>
@@ -9263,8 +10253,12 @@
       <c r="E244" s="3" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F244" t="str">
+        <f t="shared" si="3"/>
+        <v>IT013250C26F2JFIQB | 013250-LNI-00081</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
         <v>990</v>
       </c>
@@ -9280,8 +10274,12 @@
       <c r="E245" s="3" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F245" t="str">
+        <f t="shared" si="3"/>
+        <v>IT013250C26F2JFIQB | 013250-LNI-00081</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
         <v>992</v>
       </c>
@@ -9297,8 +10295,12 @@
       <c r="E246" s="3" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F246" t="str">
+        <f t="shared" si="3"/>
+        <v>IT087055C267CCUXDQ | 19087055C247812</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="3" t="s">
         <v>997</v>
       </c>
@@ -9314,8 +10316,12 @@
       <c r="E247" s="3" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F247" t="str">
+        <f t="shared" si="3"/>
+        <v>IT089017C2QU4NYWKE | 19089017C242637</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
         <v>1002</v>
       </c>
@@ -9331,8 +10337,12 @@
       <c r="E248" s="3" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F248" t="str">
+        <f t="shared" si="3"/>
+        <v>IT081005C2F4BQUWSO | 19081005C247722</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
         <v>1007</v>
       </c>
@@ -9348,8 +10358,12 @@
       <c r="E249" s="3" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F249" t="str">
+        <f t="shared" si="3"/>
+        <v>IT087004C2MZKQ4XPQ | 19087004C247158</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="3" t="s">
         <v>1012</v>
       </c>
@@ -9365,8 +10379,12 @@
       <c r="E250" s="3" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F250" t="str">
+        <f t="shared" si="3"/>
+        <v>IT082027C2PSGKHP5A | 19082027C245522</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
         <v>1017</v>
       </c>
@@ -9382,8 +10400,12 @@
       <c r="E251" s="3" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F251" t="str">
+        <f t="shared" si="3"/>
+        <v>IT063049C2CULMWDV9 | 15063049LOB5528</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
         <v>1022</v>
       </c>
@@ -9399,8 +10421,12 @@
       <c r="E252" s="3" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F252" t="str">
+        <f t="shared" si="3"/>
+        <v>IT089017C2BKJQY2QS | 19089017C246847</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
         <v>1027</v>
       </c>
@@ -9416,8 +10442,12 @@
       <c r="E253" s="3" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F253" t="str">
+        <f t="shared" si="3"/>
+        <v>IT089017C2YTOZFCG8 | 19089017C245458</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="3" t="s">
         <v>1030</v>
       </c>
@@ -9433,8 +10463,12 @@
       <c r="E254" s="3" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F254" t="str">
+        <f t="shared" si="3"/>
+        <v>IT089017C27JHAP5J4 | 19089017C246116</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="3" t="s">
         <v>1034</v>
       </c>
@@ -9450,8 +10484,12 @@
       <c r="E255" s="3" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F255" t="str">
+        <f t="shared" si="3"/>
+        <v>IT089017C2DR9JZGTI | 19089017C245457</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
         <v>1039</v>
       </c>
@@ -9467,8 +10505,12 @@
       <c r="E256" s="3" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F256" t="str">
+        <f t="shared" si="3"/>
+        <v>IT087015C287E4W3IK | 19087015C247373</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="3" t="s">
         <v>1044</v>
       </c>
@@ -9484,8 +10526,12 @@
       <c r="E257" s="3" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F257" t="str">
+        <f t="shared" si="3"/>
+        <v>IT087015C2J2P9WSIO | 19087015C247154</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="3" t="s">
         <v>1048</v>
       </c>
@@ -9501,8 +10547,12 @@
       <c r="E258" s="3" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F258" t="str">
+        <f t="shared" si="3"/>
+        <v>IT082053C2QM9QDOT8 | 19082053C247130</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="3" t="s">
         <v>1053</v>
       </c>
@@ -9516,8 +10566,12 @@
       <c r="E259" s="3" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F259" t="str">
+        <f t="shared" ref="F259:F322" si="4">E259&amp;" | "&amp;D259</f>
+        <v xml:space="preserve">IT063049C2JELXUJQM | </v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="3" t="s">
         <v>1057</v>
       </c>
@@ -9533,8 +10587,12 @@
       <c r="E260" s="3" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F260" t="str">
+        <f t="shared" si="4"/>
+        <v>IT090047C2000R9321 | R9321</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="3" t="s">
         <v>1062</v>
       </c>
@@ -9550,8 +10608,12 @@
       <c r="E261" s="3" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F261" t="str">
+        <f t="shared" si="4"/>
+        <v>IT090047C2000R9321 | R9321</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="3" t="s">
         <v>1064</v>
       </c>
@@ -9567,8 +10629,12 @@
       <c r="E262" s="3" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F262" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B46SEGEFDE | 027042-LOC-14468</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="3" t="s">
         <v>1069</v>
       </c>
@@ -9584,8 +10650,12 @@
       <c r="E263" s="3" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F263" t="str">
+        <f t="shared" si="4"/>
+        <v>IT089017C2LRXSHNS5 | 19089017C247858</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="3" t="s">
         <v>1074</v>
       </c>
@@ -9601,8 +10671,12 @@
       <c r="E264" s="3" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F264" t="str">
+        <f t="shared" si="4"/>
+        <v>IT089017C2VYDHK5AP | 19089017C247813</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="3" t="s">
         <v>1079</v>
       </c>
@@ -9618,8 +10692,12 @@
       <c r="E265" s="3" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F265" t="str">
+        <f t="shared" si="4"/>
+        <v>IT089017C2DBLDZJAH | 19089017C247815</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="3" t="s">
         <v>1084</v>
       </c>
@@ -9635,8 +10713,12 @@
       <c r="E266" s="3" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F266" t="str">
+        <f t="shared" si="4"/>
+        <v>IT087015C2GD58QL4Y | 19087015C247867</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
         <v>1089</v>
       </c>
@@ -9652,8 +10734,12 @@
       <c r="E267" s="3" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F267" t="str">
+        <f t="shared" si="4"/>
+        <v>IT081008C2VPBLW5U9 | 19081008C234498</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="3" t="s">
         <v>1094</v>
       </c>
@@ -9669,8 +10755,12 @@
       <c r="E268" s="3" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F268" t="str">
+        <f t="shared" si="4"/>
+        <v>IT082058C2D7LIORVU | 19082058C247733</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="3" t="s">
         <v>1099</v>
       </c>
@@ -9686,8 +10776,12 @@
       <c r="E269" s="3" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F269" t="str">
+        <f t="shared" si="4"/>
+        <v>IT010054B4KSTRAI3T | 010054-LT-1063</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="3" t="s">
         <v>1104</v>
       </c>
@@ -9703,8 +10797,12 @@
       <c r="E270" s="3" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F270" t="str">
+        <f t="shared" si="4"/>
+        <v>IT074002B400102006 | BR07400291000059255</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="3" t="s">
         <v>1109</v>
       </c>
@@ -9720,8 +10818,12 @@
       <c r="E271" s="3" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F271" t="str">
+        <f t="shared" si="4"/>
+        <v>IT013252C2VHD6R62I | 013252-LNI-00202</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="3" t="s">
         <v>1114</v>
       </c>
@@ -9737,8 +10839,12 @@
       <c r="E272" s="3" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F272" t="str">
+        <f t="shared" si="4"/>
+        <v>IT010025B4OVBGGYWW | 010025-LT-5060</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
         <v>1119</v>
       </c>
@@ -9754,8 +10860,12 @@
       <c r="E273" s="3" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F273" t="str">
+        <f t="shared" si="4"/>
+        <v>IT001272C2ID6SC7IS | 00127205980</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="3" t="s">
         <v>1124</v>
       </c>
@@ -9771,8 +10881,12 @@
       <c r="E274" s="3" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F274" t="str">
+        <f t="shared" si="4"/>
+        <v>IT010044B43ITCXNGX | 010044-LT-0165</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
         <v>1129</v>
       </c>
@@ -9788,8 +10902,12 @@
       <c r="E275" s="3" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F275" t="str">
+        <f t="shared" si="4"/>
+        <v>IT090003C2000P0127 | P0127</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="3" t="s">
         <v>1134</v>
       </c>
@@ -9805,8 +10923,12 @@
       <c r="E276" s="3" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F276" t="str">
+        <f t="shared" si="4"/>
+        <v>IT001272C2UJ4VBLE4 | 00127206171</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="3" t="s">
         <v>1139</v>
       </c>
@@ -9822,8 +10944,12 @@
       <c r="E277" s="3" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F277" t="str">
+        <f t="shared" si="4"/>
+        <v>IT097084C2L7ELSJJQ | 097084-LNI-00030</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="3" t="s">
         <v>1144</v>
       </c>
@@ -9839,8 +10965,12 @@
       <c r="E278" s="3" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F278" t="str">
+        <f t="shared" si="4"/>
+        <v>IT010025B4T82I9Z9Y | 010025-LT-5106</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="3" t="s">
         <v>1149</v>
       </c>
@@ -9856,8 +10986,12 @@
       <c r="E279" s="3" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F279" t="str">
+        <f t="shared" si="4"/>
+        <v>IT072006B400099162 | BA07200691000057078</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="3" t="s">
         <v>1154</v>
       </c>
@@ -9873,8 +11007,12 @@
       <c r="E280" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F280" t="str">
+        <f t="shared" si="4"/>
+        <v>IT072006B400099160 | BA07200691000057076</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="3" t="s">
         <v>1159</v>
       </c>
@@ -9890,8 +11028,12 @@
       <c r="E281" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F281" t="str">
+        <f t="shared" si="4"/>
+        <v>IT072006B400100169 | BA07200691000057868</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
         <v>1164</v>
       </c>
@@ -9907,8 +11049,12 @@
       <c r="E282" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F282" t="str">
+        <f t="shared" si="4"/>
+        <v>IT072006B400100169 | BA07200691000057868</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="3" t="s">
         <v>1166</v>
       </c>
@@ -9924,8 +11070,12 @@
       <c r="E283" s="3" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F283" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4FDKSLOGU | 027042-LOC-15696</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="3" t="s">
         <v>1171</v>
       </c>
@@ -9941,8 +11091,12 @@
       <c r="E284" s="3" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F284" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B479OCNLHY | 027042-LOC-07209</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="3" t="s">
         <v>1176</v>
       </c>
@@ -9958,8 +11112,12 @@
       <c r="E285" s="3" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F285" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4I3WIA3GF | 027042-LOC-07210</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="3" t="s">
         <v>1180</v>
       </c>
@@ -9975,8 +11133,12 @@
       <c r="E286" s="3" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F286" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C25WODVQW3 | 027042-LOC-12548</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="3" t="s">
         <v>1185</v>
       </c>
@@ -9992,8 +11154,12 @@
       <c r="E287" s="3" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F287" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C29DW7DARE | 027042-LOC-06076</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="3" t="s">
         <v>1190</v>
       </c>
@@ -10009,8 +11175,12 @@
       <c r="E288" s="3" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F288" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B44NUPHRW7 | 027042-LOC-15694</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="3" t="s">
         <v>1195</v>
       </c>
@@ -10026,8 +11196,12 @@
       <c r="E289" s="3" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F289" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4NP4HUA59 | 027042-LOC-15697</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="3" t="s">
         <v>1200</v>
       </c>
@@ -10043,8 +11217,12 @@
       <c r="E290" s="3" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F290" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4T5498MKR | 027042-LOC-01932</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="3" t="s">
         <v>1205</v>
       </c>
@@ -10060,8 +11238,12 @@
       <c r="E291" s="3" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F291" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4ACUSOIGR | 027042-LOC-01933</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="3" t="s">
         <v>1209</v>
       </c>
@@ -10077,8 +11259,12 @@
       <c r="E292" s="3" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F292" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4SC5RY46E | 027042-LOC-06841</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="3" t="s">
         <v>1214</v>
       </c>
@@ -10094,8 +11280,12 @@
       <c r="E293" s="3" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F293" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4SOK4U7W8 | 027042-LOC-06842</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
         <v>1218</v>
       </c>
@@ -10111,8 +11301,12 @@
       <c r="E294" s="3" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F294" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2JOOQQK4F | 027042-LOC-00456</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
         <v>1222</v>
       </c>
@@ -10128,8 +11322,12 @@
       <c r="E295" s="3" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F295" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C23E6JZNZU | 027042-LOC-03751</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="3" t="s">
         <v>1227</v>
       </c>
@@ -10145,8 +11343,12 @@
       <c r="E296" s="3" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F296" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2A5JOY95M | 027042-LOC-13963</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
         <v>1232</v>
       </c>
@@ -10162,8 +11364,12 @@
       <c r="E297" s="3" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F297" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4WQPFUDBZ | 027042-LOC-03684</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
         <v>1237</v>
       </c>
@@ -10179,8 +11385,12 @@
       <c r="E298" s="3" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F298" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4AGZLU5B8 | 027042-LOC-01212</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
         <v>1242</v>
       </c>
@@ -10196,8 +11406,12 @@
       <c r="E299" s="3" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F299" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C22VSRCYOF | 027042-LOC-05462</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
         <v>1247</v>
       </c>
@@ -10213,8 +11427,12 @@
       <c r="E300" s="3" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F300" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2QYMM8RLA | 027042-LOC-00884</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="3" t="s">
         <v>1252</v>
       </c>
@@ -10230,8 +11448,12 @@
       <c r="E301" s="3" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F301" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2ZZMQAQZH | 027042-LOC-03687</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
         <v>1256</v>
       </c>
@@ -10247,8 +11469,12 @@
       <c r="E302" s="3" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F302" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2WDE9SRZ6 | 027042-LOC-00938</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
         <v>1261</v>
       </c>
@@ -10264,8 +11490,12 @@
       <c r="E303" s="3" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F303" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B49TOH6FSU | 027042-LOC-15706</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
         <v>1266</v>
       </c>
@@ -10281,8 +11511,12 @@
       <c r="E304" s="3" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F304" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4PP26EJ2F | 027042-LOC-15705</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
         <v>1270</v>
       </c>
@@ -10298,8 +11532,12 @@
       <c r="E305" s="3" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F305" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4IHRTP26E | 027042-LOC-15704</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
         <v>1274</v>
       </c>
@@ -10315,8 +11553,12 @@
       <c r="E306" s="3" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F306" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4O6MAASNO | 027042-LOC-15703</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
         <v>1278</v>
       </c>
@@ -10332,8 +11574,12 @@
       <c r="E307" s="3" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F307" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B43WKK3SJ8 | 027042-LOC-15702</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
         <v>1282</v>
       </c>
@@ -10349,8 +11595,12 @@
       <c r="E308" s="3" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F308" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4EHYWUJQ3 | 027042-LOC-15701</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
         <v>1286</v>
       </c>
@@ -10366,8 +11616,12 @@
       <c r="E309" s="3" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F309" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4D8L3R5TU | 027042-LOC-15700</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="3" t="s">
         <v>1290</v>
       </c>
@@ -10383,8 +11637,12 @@
       <c r="E310" s="3" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F310" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4QY4P9JN3 | 027042-LOC-15699</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="3" t="s">
         <v>1294</v>
       </c>
@@ -10400,8 +11658,12 @@
       <c r="E311" s="3" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F311" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2Q8CT9S7X | 027042-LOC-00378</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="3" t="s">
         <v>1299</v>
       </c>
@@ -10417,8 +11679,12 @@
       <c r="E312" s="3" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F312" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2ZPXINC9C | 027042-LOC-13654</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="3" t="s">
         <v>1304</v>
       </c>
@@ -10434,8 +11700,12 @@
       <c r="E313" s="3" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F313" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C254C64QOW | 027042-LOC-15832</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="3" t="s">
         <v>1309</v>
       </c>
@@ -10451,8 +11721,12 @@
       <c r="E314" s="3" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F314" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C23Y6XBTTC | 027042-LOC-05422</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="3" t="s">
         <v>1313</v>
       </c>
@@ -10468,8 +11742,12 @@
       <c r="E315" s="3" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F315" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2Y3ASFB8C | 027042-LOC-03147</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="3" t="s">
         <v>1318</v>
       </c>
@@ -10485,8 +11763,12 @@
       <c r="E316" s="3" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F316" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4MHE8WDZL | 027042-LOC-04008</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="3" t="s">
         <v>1323</v>
       </c>
@@ -10502,8 +11784,12 @@
       <c r="E317" s="3" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F317" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2S7MBTI7H | 027042-LOC-02995</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="3" t="s">
         <v>1328</v>
       </c>
@@ -10519,8 +11805,12 @@
       <c r="E318" s="3" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F318" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2PHKT6OUX | 027042-LOC-12549</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="3" t="s">
         <v>1332</v>
       </c>
@@ -10536,8 +11826,12 @@
       <c r="E319" s="3" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F319" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042B4YZCDRZKX | 027042-LOC-15691</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="3" t="s">
         <v>1337</v>
       </c>
@@ -10553,8 +11847,12 @@
       <c r="E320" s="3" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F320" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2UO9HKV4P | 027042-LOC-00255</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="3" t="s">
         <v>1342</v>
       </c>
@@ -10570,8 +11868,12 @@
       <c r="E321" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F321" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2SQEEM3RS | 027042-LOC-00879</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="3" t="s">
         <v>1347</v>
       </c>
@@ -10587,8 +11889,12 @@
       <c r="E322" s="3" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F322" t="str">
+        <f t="shared" si="4"/>
+        <v>IT027042C2SF3WEZQT | 027042-LOC-08247</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="3" t="s">
         <v>1352</v>
       </c>
@@ -10604,8 +11910,12 @@
       <c r="E323" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F323" t="str">
+        <f t="shared" ref="F323:F378" si="5">E323&amp;" | "&amp;D323</f>
+        <v>IT027042B4RTWWX2YR | 027042-LOC-15816</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="3" t="s">
         <v>1357</v>
       </c>
@@ -10621,8 +11931,12 @@
       <c r="E324" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F324" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042B4RTWWX2YR | 027042-LOC-15816</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="3" t="s">
         <v>1359</v>
       </c>
@@ -10638,8 +11952,12 @@
       <c r="E325" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F325" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042B4RTWWX2YR | 027042-LOC-15816</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="3" t="s">
         <v>1361</v>
       </c>
@@ -10655,8 +11973,12 @@
       <c r="E326" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F326" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042B4RTWWX2YR | 027042-LOC-15816</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="3" t="s">
         <v>1363</v>
       </c>
@@ -10672,8 +11994,12 @@
       <c r="E327" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F327" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042B4RTWWX2YR | 027042-LOC-15816</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="3" t="s">
         <v>1365</v>
       </c>
@@ -10689,8 +12015,12 @@
       <c r="E328" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F328" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042B4RTWWX2YR | 027042-LOC-15816</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="3" t="s">
         <v>1367</v>
       </c>
@@ -10706,8 +12036,12 @@
       <c r="E329" s="3" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F329" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042B4O39MPPKF | 027042-LOC-02375</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="3" t="s">
         <v>1372</v>
       </c>
@@ -10723,8 +12057,12 @@
       <c r="E330" s="3" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F330" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042C245S2IJIN | 027042-LOC-00454</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="3" t="s">
         <v>1377</v>
       </c>
@@ -10740,8 +12078,12 @@
       <c r="E331" s="3" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F331" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042C24WPY3G7A | 027042-LOC-15798</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="3" t="s">
         <v>1382</v>
       </c>
@@ -10757,8 +12099,12 @@
       <c r="E332" s="3" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F332" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042B4YSQQEO5A | 027042-LOC-04148</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="3" t="s">
         <v>1386</v>
       </c>
@@ -10774,8 +12120,12 @@
       <c r="E333" s="3" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F333" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042B4KDQB2W3M | 027042-LOC-15698</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="3" t="s">
         <v>1390</v>
       </c>
@@ -10791,8 +12141,12 @@
       <c r="E334" s="3" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F334" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042C2R2YNBDWQ | 027042-LOC-02374</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="3" t="s">
         <v>1395</v>
       </c>
@@ -10808,8 +12162,12 @@
       <c r="E335" s="3" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F335" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042C2QKUOHV8Z | 027042-LOC-03229</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="3" t="s">
         <v>1400</v>
       </c>
@@ -10825,8 +12183,12 @@
       <c r="E336" s="3" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F336" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042B42DVHCVOR | 027042-LOC-00147</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="3" t="s">
         <v>1405</v>
       </c>
@@ -10842,8 +12204,12 @@
       <c r="E337" s="3" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F337" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042C2OJPADSZP | 027042-LOC-06763</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="3" t="s">
         <v>1410</v>
       </c>
@@ -10859,8 +12225,12 @@
       <c r="E338" s="3" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F338" t="str">
+        <f t="shared" si="5"/>
+        <v>IT074012B400100178 | BR07401291000057877</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="3" t="s">
         <v>1415</v>
       </c>
@@ -10876,8 +12246,12 @@
       <c r="E339" s="3" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F339" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B4TRDMDOO6 | 010025-LT-5251</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="3" t="s">
         <v>1420</v>
       </c>
@@ -10893,8 +12267,12 @@
       <c r="E340" s="3" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F340" t="str">
+        <f t="shared" si="5"/>
+        <v>IT072006B400100176 | BA07200691000057875</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="3" t="s">
         <v>1425</v>
       </c>
@@ -10910,8 +12288,12 @@
       <c r="E341" s="3" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F341" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C2COXWGO32 | 00127206293</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="3" t="s">
         <v>1430</v>
       </c>
@@ -10927,8 +12309,12 @@
       <c r="E342" s="3" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F342" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B4V33YZFRR | 010025-LT-5253</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="3" t="s">
         <v>1435</v>
       </c>
@@ -10944,8 +12330,12 @@
       <c r="E343" s="3" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F343" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B47HMZRX9O | 010025-LT-5148</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="3" t="s">
         <v>1440</v>
       </c>
@@ -10961,8 +12351,12 @@
       <c r="E344" s="3" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F344" t="str">
+        <f t="shared" si="5"/>
+        <v>IT089017C2ZQWCN5OD | 19089017C248013</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="3" t="s">
         <v>1445</v>
       </c>
@@ -10978,8 +12372,12 @@
       <c r="E345" s="3" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F345" t="str">
+        <f t="shared" si="5"/>
+        <v>IT089017C25F8FGLYX | 19089017C248012</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="3" t="s">
         <v>1449</v>
       </c>
@@ -10995,8 +12393,12 @@
       <c r="E346" s="3" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F346" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C2L8EGYCLX | 00127206303</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="3" t="s">
         <v>1454</v>
       </c>
@@ -11012,8 +12414,12 @@
       <c r="E347" s="3" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F347" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B4NVCTJ6CS | 010025-LT-5255</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="3" t="s">
         <v>1459</v>
       </c>
@@ -11029,8 +12435,12 @@
       <c r="E348" s="3" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F348" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C2SO73CJOK | 00127206307</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="3" t="s">
         <v>1464</v>
       </c>
@@ -11046,8 +12456,12 @@
       <c r="E349" s="3" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F349" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C2D2FB6UZG | 00127206313</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="3" t="s">
         <v>1469</v>
       </c>
@@ -11063,8 +12477,12 @@
       <c r="E350" s="3" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F350" t="str">
+        <f t="shared" si="5"/>
+        <v>IT089017C249W7V8IF | 19089017C248015</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="3" t="s">
         <v>1474</v>
       </c>
@@ -11080,8 +12498,12 @@
       <c r="E351" s="3" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F351" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B4J247L5JI | 010025-LT-5305</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="3" t="s">
         <v>1479</v>
       </c>
@@ -11097,8 +12519,12 @@
       <c r="E352" s="3" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F352" t="str">
+        <f t="shared" si="5"/>
+        <v>IT063049C2AKPUML7S | 15063049LOB5624</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="3" t="s">
         <v>1484</v>
       </c>
@@ -11114,8 +12540,12 @@
       <c r="E353" s="3" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F353" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B4C3IU6G4V | 010025-LT-5303</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="3" t="s">
         <v>1489</v>
       </c>
@@ -11131,8 +12561,12 @@
       <c r="E354" s="3" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F354" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B4YATZFQVO | 010025-LT-4896</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="3" t="s">
         <v>1494</v>
       </c>
@@ -11148,8 +12582,12 @@
       <c r="E355" s="3" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F355" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C29ZFHGZMR | 00127206474</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="3" t="s">
         <v>1499</v>
       </c>
@@ -11165,8 +12603,12 @@
       <c r="E356" s="3" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F356" t="str">
+        <f t="shared" si="5"/>
+        <v>IT090047C2000S3958 | S3958</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="3" t="s">
         <v>1504</v>
       </c>
@@ -11182,8 +12624,12 @@
       <c r="E357" s="3" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F357" t="str">
+        <f t="shared" si="5"/>
+        <v>IT008055B4ZWVJ6V5D | 008055-LT-2809</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="3" t="s">
         <v>1509</v>
       </c>
@@ -11199,8 +12645,12 @@
       <c r="E358" s="3" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F358" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C2A47VO3IF | 00127206748</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="3" t="s">
         <v>1514</v>
       </c>
@@ -11216,8 +12666,12 @@
       <c r="E359" s="3" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F359" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C2LUT2D3LB | 00127207399</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="3" t="s">
         <v>1519</v>
       </c>
@@ -11233,8 +12687,12 @@
       <c r="E360" s="3" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F360" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C2LUT2D3LB | 00127207399</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="3" t="s">
         <v>1521</v>
       </c>
@@ -11250,8 +12708,12 @@
       <c r="E361" s="3" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F361" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C2A8OPATXJ | 00127207398</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="3" t="s">
         <v>1525</v>
       </c>
@@ -11267,8 +12729,12 @@
       <c r="E362" s="3" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F362" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B46K7N2386 | 010025-LT-5438</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="3" t="s">
         <v>1530</v>
       </c>
@@ -11284,8 +12750,12 @@
       <c r="E363" s="3" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F363" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C2GMMA64L4 | 00127206883</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="3" t="s">
         <v>1535</v>
       </c>
@@ -11301,8 +12771,12 @@
       <c r="E364" s="3" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F364" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B46K7N2386 | 008055-LT-3086</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="3" t="s">
         <v>1539</v>
       </c>
@@ -11316,8 +12790,12 @@
       <c r="E365" s="3" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F365" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">IT009034B4YX78KHA5 | </v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="3" t="s">
         <v>1543</v>
       </c>
@@ -11333,8 +12811,12 @@
       <c r="E366" s="3" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F366" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B4H4JUM54I | 010025-LT-5497</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="3" t="s">
         <v>1548</v>
       </c>
@@ -11350,8 +12832,12 @@
       <c r="E367" s="3" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F367" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B4FVBUMMPH | 010025-LT-5460</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="3" t="s">
         <v>1553</v>
       </c>
@@ -11367,8 +12853,12 @@
       <c r="E368" s="3" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F368" t="str">
+        <f t="shared" si="5"/>
+        <v>IT063049C2KTRAG484 | 15063049LOB6566</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="3" t="s">
         <v>1558</v>
       </c>
@@ -11384,8 +12874,12 @@
       <c r="E369" s="3" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F369" t="str">
+        <f t="shared" si="5"/>
+        <v>IT090047C2000S4115 | S4115</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="3" t="s">
         <v>1563</v>
       </c>
@@ -11401,8 +12895,12 @@
       <c r="E370" s="3" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F370" t="str">
+        <f t="shared" si="5"/>
+        <v>IT063049C2S48RM2N9 | 15063049LOB5064</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="3" t="s">
         <v>1568</v>
       </c>
@@ -11418,8 +12916,12 @@
       <c r="E371" s="3" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F371" t="str">
+        <f t="shared" si="5"/>
+        <v>IT008055B4P6IG9WIW | IT010025B4YJ4LBEPP</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="3" t="s">
         <v>1573</v>
       </c>
@@ -11435,8 +12937,12 @@
       <c r="E372" s="3" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F372" t="str">
+        <f t="shared" si="5"/>
+        <v>IT072006C200070105 | 072006C200070105</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="3" t="s">
         <v>1578</v>
       </c>
@@ -11452,8 +12958,12 @@
       <c r="E373" s="3" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F373" t="str">
+        <f t="shared" si="5"/>
+        <v>IT001272C27INOJYXG | 00127207247</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="3" t="s">
         <v>1583</v>
       </c>
@@ -11469,8 +12979,12 @@
       <c r="E374" s="3" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F374" t="str">
+        <f t="shared" si="5"/>
+        <v>IT010025B4VLTY6MRI | 010025-LT-5685</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="3" t="s">
         <v>1588</v>
       </c>
@@ -11486,8 +13000,12 @@
       <c r="E375" s="3" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F375" t="str">
+        <f t="shared" si="5"/>
+        <v>IT037006C2H7LOZGQQ | 037006-AT-03942</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="3" t="s">
         <v>1593</v>
       </c>
@@ -11503,8 +13021,12 @@
       <c r="E376" s="3" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F376" t="str">
+        <f t="shared" si="5"/>
+        <v>IT072006B400104141 | BA07200691000060910</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="3" t="s">
         <v>1598</v>
       </c>
@@ -11520,8 +13042,12 @@
       <c r="E377" s="3" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="F377" t="str">
+        <f t="shared" si="5"/>
+        <v>IT072006B400104141 | BA07200691000060910</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="3" t="s">
         <v>1600</v>
       </c>
@@ -11536,6 +13062,10 @@
       </c>
       <c r="E378" s="3" t="s">
         <v>1604</v>
+      </c>
+      <c r="F378" t="str">
+        <f t="shared" si="5"/>
+        <v>IT027042C2U9QBWVVM | 027042-LOC-15747</v>
       </c>
     </row>
   </sheetData>
